--- a/attentional_competition_task/chooseBlockA.xlsx
+++ b/attentional_competition_task/chooseBlockA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sag22id\Documents\Projects\GCA\gca_avoidance\attentional_competition_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2D9097-E401-41D9-887A-08990E434955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C63A6-95BD-4616-9D13-C9A3AAF9B637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="29350" windowHeight="10920" xr2:uid="{EE2D1E65-ECCA-4926-8829-64F5B2CF654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M12" sqref="E8:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
